--- a/DataTest/GetProductInfo.xlsx
+++ b/DataTest/GetProductInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>$138,000.00</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Cosy Hai Yen QHFJSGUV</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,6 +581,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -867,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -1291,6 +1312,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="121">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="122">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s" s="123">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s" s="124">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="125">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
